--- a/sqlquery/0707 문제 정규화 풀이.xlsx
+++ b/sqlquery/0707 문제 정규화 풀이.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1yunh\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ksm_mjc813exam\sqlquery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD843C3-3049-497C-A574-F4418320E3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2EC507-B617-48EF-996F-26852AE9506F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B568FC79-F224-4091-975B-7A563B261C39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
   <si>
     <t>현 데이터는 정규화 전의 시뮬레이션해본 데이터들을 열거한 상황입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,14 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치테이블_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케릭터테이블_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경기테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,6 +427,46 @@
   </si>
   <si>
     <t>한옥마을2</t>
+  </si>
+  <si>
+    <t>맵 테이블_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자테이블id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터테이블id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치테이블id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용캐릭터b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b승리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -853,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937C4704-B51F-4B61-9613-97BEE003C61C}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="52" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="75" workbookViewId="0">
+      <selection activeCell="X54" sqref="X54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1366,15 +1398,25 @@
       </c>
       <c r="B32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L32" s="4"/>
       <c r="O32" s="4" t="s">
         <v>89</v>
@@ -1397,25 +1439,25 @@
         <v>6</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>73</v>
@@ -1553,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -1600,7 +1642,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L37" s="1">
         <v>3</v>
@@ -1647,7 +1689,7 @@
         <v>34</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L38" s="1">
         <v>2</v>
@@ -1694,7 +1736,7 @@
         <v>39</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L39" s="1">
         <v>3</v>
@@ -1741,7 +1783,7 @@
         <v>44</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L40" s="1">
         <v>2</v>
@@ -1873,16 +1915,22 @@
       </c>
       <c r="B44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="J44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="M44" s="4"/>
       <c r="O44" s="1">
         <v>11</v>
@@ -1923,13 +1971,13 @@
         <v>58</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>62</v>
